--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/artfynd/A 39255-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/artfynd/A 39255-2019.xlsx", "A 39255-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/kartor/A 39255-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/kartor/A 39255-2019.png", "A 39255-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomål/A 39255-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomål/A 39255-2019.docx", "A 39255-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomålsmail/A 39255-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomålsmail/A 39255-2019.docx", "A 39255-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsyn/A 39255-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsyn/A 39255-2019.docx", "A 39255-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsynsmail/A 39255-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsynsmail/A 39255-2019.docx", "A 39255-2019")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -712,27 +712,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/artfynd/A 58801-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/artfynd/A 58801-2020.xlsx", "A 58801-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/kartor/A 58801-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/kartor/A 58801-2020.png", "A 58801-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomål/A 58801-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomål/A 58801-2020.docx", "A 58801-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomålsmail/A 58801-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomålsmail/A 58801-2020.docx", "A 58801-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsyn/A 58801-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsyn/A 58801-2020.docx", "A 58801-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsynsmail/A 58801-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsynsmail/A 58801-2020.docx", "A 58801-2020")</f>
         <v/>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -798,27 +798,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/artfynd/A 58804-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/artfynd/A 58804-2020.xlsx", "A 58804-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/kartor/A 58804-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/kartor/A 58804-2020.png", "A 58804-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomål/A 58804-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomål/A 58804-2020.docx", "A 58804-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomålsmail/A 58804-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomålsmail/A 58804-2020.docx", "A 58804-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsyn/A 58804-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsyn/A 58804-2020.docx", "A 58804-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsynsmail/A 58804-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsynsmail/A 58804-2020.docx", "A 58804-2020")</f>
         <v/>
       </c>
     </row>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -883,27 +883,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/artfynd/A 63435-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/artfynd/A 63435-2019.xlsx", "A 63435-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/kartor/A 63435-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/kartor/A 63435-2019.png", "A 63435-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomål/A 63435-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomål/A 63435-2019.docx", "A 63435-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomålsmail/A 63435-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomålsmail/A 63435-2019.docx", "A 63435-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsyn/A 63435-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsyn/A 63435-2019.docx", "A 63435-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsynsmail/A 63435-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsynsmail/A 63435-2019.docx", "A 63435-2019")</f>
         <v/>
       </c>
     </row>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -968,27 +968,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/artfynd/A 27922-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/artfynd/A 27922-2023.xlsx", "A 27922-2023")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/kartor/A 27922-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/kartor/A 27922-2023.png", "A 27922-2023")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomål/A 27922-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomål/A 27922-2023.docx", "A 27922-2023")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomålsmail/A 27922-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/klagomålsmail/A 27922-2023.docx", "A 27922-2023")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsyn/A 27922-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsyn/A 27922-2023.docx", "A 27922-2023")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsynsmail/A 27922-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_GOTEBORG/tillsynsmail/A 27922-2023.docx", "A 27922-2023")</f>
         <v/>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="R16" s="2" t="inlineStr"/>
     </row>
-    <row r="17">
+    <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
           <t>A 37011-2022</t>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1618,6 +1618,63 @@
         <v>0</v>
       </c>
       <c r="R17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 44065-2023</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GÖTEBORG</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>45188</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>45188</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>45188</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>45188</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>

--- a/Översikt GÖTEBORG.xlsx
+++ b/Översikt GÖTEBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43690</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44146</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44146</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>43794</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45098</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>43501</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>43915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         <v>43938</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44147</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         <v>44278</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>44294</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>44378</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>44504</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
         <v>44623</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>44806</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>45188</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
